--- a/config/ThemeConfigRequest_Template_en_AU_L3.xlsx
+++ b/config/ThemeConfigRequest_Template_en_AU_L3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a83h8zz\Programming2018\site-config-parser\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B1EC1E-B4A0-4DC0-A0BC-5811EE6E0C6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFA3327A-AD17-4EFF-9220-CF191414CFE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9720" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,12 +55,12 @@
     <definedName name="YesNo" localSheetId="1">Lists!#REF!</definedName>
     <definedName name="YesNo">Lists!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="436">
   <si>
     <t>Metrics Metadata</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Breadcrumb</t>
   </si>
   <si>
-    <t>Results Display Name</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -93,18 +90,6 @@
   </si>
   <si>
     <t>Project Name</t>
-  </si>
-  <si>
-    <t>Federated Search</t>
-  </si>
-  <si>
-    <t>Document Search</t>
-  </si>
-  <si>
-    <t>MSDS</t>
-  </si>
-  <si>
-    <t>Are products Standard or Roll-up?</t>
   </si>
   <si>
     <t>Standard</t>
@@ -164,9 +149,6 @@
     <t>Link 8</t>
   </si>
   <si>
-    <t>GSA Only Search</t>
-  </si>
-  <si>
     <t>Support Bar</t>
   </si>
   <si>
@@ -236,27 +218,12 @@
     <t>youtube</t>
   </si>
   <si>
-    <t>3M United States</t>
-  </si>
-  <si>
-    <t>Results Page URL (FUZE Unique Name)</t>
-  </si>
-  <si>
     <t>Heading</t>
   </si>
   <si>
-    <t>IBG_Automotive_US</t>
-  </si>
-  <si>
-    <t>IBG_Automotive_US_Products</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Site(s) Unique Name</t>
-  </si>
-  <si>
     <t>Browser Page Title</t>
   </si>
   <si>
@@ -353,21 +320,9 @@
     <t>Chassis &amp; Wheels</t>
   </si>
   <si>
-    <t>PPS and Scotch are trademarks of 3M.</t>
-  </si>
-  <si>
-    <t>IBG_Auto_OEM-Tier_Resources</t>
-  </si>
-  <si>
-    <t>IBG_Auto_OEM-Tier_Help</t>
-  </si>
-  <si>
     <t>Click to Chat</t>
   </si>
   <si>
-    <t>###moxieChat###</t>
-  </si>
-  <si>
     <t>1-888-123-4567</t>
   </si>
   <si>
@@ -381,9 +336,6 @@
   </si>
   <si>
     <t>Site Display Name</t>
-  </si>
-  <si>
-    <t>Secondary Site Navigation</t>
   </si>
   <si>
     <t>Item 1</t>
@@ -450,12 +402,6 @@
   </si>
   <si>
     <t>FUZE Unique Name (or URL if page outside of FUZE)</t>
-  </si>
-  <si>
-    <t>Site Search (If default Country Search is not used, or Federated Search is desired)</t>
-  </si>
-  <si>
-    <t>GSA Results (Pages)</t>
   </si>
   <si>
     <t>[Overview cannot have a dropdown]</t>
@@ -554,6 +500,9 @@
     <t>IBG_OEM_Tier_US_04</t>
   </si>
   <si>
+    <t>http://fuzeauth.3m.com/wps/myportal/en_US/3M/oem-tier-us/</t>
+  </si>
+  <si>
     <t>3M Automotive</t>
   </si>
   <si>
@@ -563,21 +512,6 @@
     <t xml:space="preserve"> | </t>
   </si>
   <si>
-    <t>SDS</t>
-  </si>
-  <si>
-    <t>Pages</t>
-  </si>
-  <si>
-    <t>IBG_Automotive_US_SearchResults</t>
-  </si>
-  <si>
-    <t>IBG_Automotive_US_MSDS</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
     <t>Link 10</t>
   </si>
   <si>
@@ -587,21 +521,6 @@
     <t>Link 12</t>
   </si>
   <si>
-    <t>[CORP_FUZEExp_US_All3MProducts]~/All-3M-Products/Automotive/?N=5002385+8709313+8711017+8711404+8716712&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[CORP_FUZEExp_US_All3MProducts]~/All-3M-Products/Automotive/?N=5002385+8709313+8710580+8711017+8716712&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[CORP_FUZEExp_US_All3MProducts]~/All-3M-Products/Automotive/?N=5002385+8709313+8709330+8711017+8716712&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[CORP_FUZEExp_US_All3MProducts]~/All-3M-Products/Automotive/?N=5002385+8709313+8709392+8711017+8716712&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[CORP_FUZEExp_US_All3MProducts]~/All-3M-Products/Automotive/?N=5002385+8709313+8709337+8711017+8716712&amp;rt=r3</t>
-  </si>
-  <si>
     <t>Abrasives</t>
   </si>
   <si>
@@ -651,18 +570,6 @@
   </si>
   <si>
     <t>DIY Auto Care</t>
-  </si>
-  <si>
-    <t>http://bondo.com/</t>
-  </si>
-  <si>
-    <t>http://solutions.3m.com/wps/portal/3M/en_US/3MIndustrial/Abrasives/Brands/Cubitron-II-Abrasives/</t>
-  </si>
-  <si>
-    <t>http://solutions.3m.com/wps/portal/3M/en_US/3M-Automotive/Aftermarket/Our-Brands/Scotchgard-Pro-Series/</t>
-  </si>
-  <si>
-    <t>http://solutions.3m.com/wps/portal/3M/en_US/3M_Automotive/OEMs/Product_Center/?N=7574409+4607&amp;rt=r3</t>
   </si>
   <si>
     <t>Bondo</t>
@@ -1094,28 +1001,6 @@
     <t>Manual Dropdown</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3M United States &gt; About 3M &gt; Sustainability &gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [Site Homepage] &gt; [Current Child Page]</t>
-    </r>
-  </si>
-  <si>
     <t>Disclaimer/Trademark</t>
   </si>
   <si>
@@ -1123,9 +1008,6 @@
   </si>
   <si>
     <t>NOINDEX,NOFOLLOW</t>
-  </si>
-  <si>
-    <t>IBG_Auto_OEM-Tier</t>
   </si>
   <si>
     <t xml:space="preserve">Basics </t>
@@ -1407,191 +1289,271 @@
     </r>
   </si>
   <si>
-    <t>PRODUCTS</t>
-  </si>
-  <si>
-    <t>http://fuzeauth.3m.com/wps/myportal/en_US/3M/oem-tier-us/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labe2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solutions</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>View all</t>
-  </si>
-  <si>
-    <t>Labe3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labe4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_IN</t>
-  </si>
-  <si>
-    <t>GMS-87-SSN</t>
-  </si>
-  <si>
-    <t>https://fuzeauth.3m.com/wps/myportal/en_IN/$project/GMS-87-SSN/3M/road-safety-in/</t>
-  </si>
-  <si>
-    <t>en_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Traffic Safety and Security Division</t>
-  </si>
-  <si>
-    <t>3M India</t>
-  </si>
-  <si>
-    <t>CORP_FUZEExp_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reflective Sign Sheeting</t>
-  </si>
-  <si>
-    <t>Pavement Markings</t>
-  </si>
-  <si>
-    <t>Temporary Traffic Control</t>
-  </si>
-  <si>
-    <t>Reflective &amp; Conspicuity Markings</t>
-  </si>
-  <si>
-    <t>Products</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rural Roads</t>
-  </si>
-  <si>
-    <t>Cities</t>
-  </si>
-  <si>
-    <t>Highways</t>
-  </si>
-  <si>
-    <t>Variable Messaging Systems (VMS)</t>
-  </si>
-  <si>
-    <t>Road Safety Articles</t>
-  </si>
-  <si>
-    <t>Element of Safe Roads</t>
-  </si>
-  <si>
-    <t>Case Studies (Global &amp; Local)</t>
-  </si>
-  <si>
-    <t>Contact Us/Contact an Expert</t>
-  </si>
-  <si>
-    <t>FAQ</t>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Sign-Sheeting-Tape/?N=5002385+8710677+8710896+8711017+3294857442&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Sign-Sheeting-Tape/?N=5002385+8710677+8710896+8711017+3294857442&amp;rt=r3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Pavement-Marking/?N=5002385+8710677+8710866+8711017+3294857442&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Pavement-Marking/?N=5002385+8710677+8710866+8711017+3294857442&amp;rt=r3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Temporary-Traffic-Control-Signage/?N=5002385+8710677+8711017+8728249+3294857442&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Temporary-Traffic-Control-Signage/?N=5002385+8710677+8711017+8728249+3294857442&amp;rt=r3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Vehicle-Conspicuity-Marking/?N=5002385+8710677+8710933+8711017+3294857442&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/Top-Products/Traffic-Vehicle-Safety/Vehicle-Conspicuity-Marking/?N=5002385+8710677+8710933+8711017+3294857442&amp;rt=r3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>View all</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]?N=5002385+8709322+8709397+8710677+8711017+3294857442&amp;rt=r3</t>
-  </si>
-  <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]?N=5002385+8709322+8709397+8710677+8711017+3294857442&amp;rt=r3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Solutions_IN</t>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Solutions_Highways_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Solutions_RuralRoad_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Solutions_Cities_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Solutions_VMS_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Resources_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_IN_Resources_SafetyCenterBlog</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Resources_ElementsOfSafeRoads_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Resources_CaseStudies_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Support_ContactUs_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Support_FAQ_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGB_RoadSafety_Support_IN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>United States &gt; About 3M &gt; Sustainability &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Site Homepage] &gt; [Current Child Page]</t>
+    </r>
+  </si>
+  <si>
+    <t>###ChatButton###</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_US_All3MProducts]~/All-3M-Products/Automotive/?N=5002385+8709313+8711017+8711404+8716712&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>https://www.3m.com/3M/en_US/cubitronII-us/</t>
+  </si>
+  <si>
+    <t>https://www.3m.com/3M/en_US/thinsulate-us/</t>
+  </si>
+  <si>
+    <t>https://www.scotchgard.com/</t>
+  </si>
+  <si>
+    <t>https://www.3m.com/3M/en_US/bondo-us/</t>
+  </si>
+  <si>
+    <t>Brands listed above are trademarks of 3M.</t>
+  </si>
+  <si>
+    <t>[URL.IBG_Auto_OEM-Tier_Help]</t>
+  </si>
+  <si>
+    <t>IBG_Auto_OEM-Tier_Products</t>
+  </si>
+  <si>
+    <t>IBG_Auto_OEM-Tier_Applications</t>
+  </si>
+  <si>
+    <t>IBG_Auto_OEM-Tier_Support</t>
+  </si>
+  <si>
+    <t>CORP_FUZEExp_HealthCare_HK</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙科</t>
+  </si>
+  <si>
+    <t>食物安全和微生物學 (English)</t>
+  </si>
+  <si>
+    <t>手部衛生</t>
+  </si>
+  <si>
+    <t>口腔護理</t>
+  </si>
+  <si>
+    <t>牙科矯正</t>
+  </si>
+  <si>
+    <t>病人監控</t>
+  </si>
+  <si>
+    <t>固定敷料</t>
+  </si>
+  <si>
+    <t>皮膚和傷口護理</t>
+  </si>
+  <si>
+    <t>消毒監測</t>
+  </si>
+  <si>
+    <t>手術方案</t>
+  </si>
+  <si>
+    <t>失禁皮膚護理</t>
+  </si>
+  <si>
+    <t>查看全部</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Dental-Products/?N=5002385+8711017+8713393+3293746353&amp;rt=r3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/company-hk/all-3m-products/~/All-3M-Products/Food-Safety-Microbiology/?N=5002385+8711017+8711414+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Hand-Hygiene/?N=5002385+8711017+8711095+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/%25E690%25E6C9-3M-%25E74%25A2%25E531/%25E50B%25E4%25BA%25BA%25E8%25AD%25B7%25E706/%25E96%25AB%25E792/%25E5F%25A3%25E854%25E8%25AD%25B7%25E706/?N=5002385+8707795+8707799+8710669+8711017+3293746351&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Orthodontic/?N=5002385+8710666+8711017+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Patient-Monitoring/?N=5002385+8711017+8711096+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Securement-Immobilization-Dressing-Securement/?N=5002385+8711017+8711097+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Skin-Wound-Care/?N=5002385+8711017+8711098+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Sterilization-Monitoring/?N=5002385+8711017+8711099+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/All-3M-Products/Surgical-Solutions/?N=5002385+8711017+8711100+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~all-3m-products/?N=5002385+8711017+8711717+3293746351&amp;rt=r3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/%E6%89%80%E6%9C%89-3M-%E7%94%A2%E5%93%81/%E9%86%AB%E7%99%82/?N=5002385+8707795+8711017+3293746351&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>生物處理 (US, English)</t>
+  </si>
+  <si>
+    <t>藥物輸送系統 (US, English)</t>
+  </si>
+  <si>
+    <t>食物安全 (English)</t>
+  </si>
+  <si>
+    <t>衛生信息系統 (US, English)</t>
+  </si>
+  <si>
+    <t>醫療</t>
+  </si>
+  <si>
+    <t>牙科產品 (English)</t>
+  </si>
+  <si>
+    <t>牙科矯正 (English)</t>
+  </si>
+  <si>
+    <t>https://www.3m.com/3M/en_US/bioprocessing-us/</t>
+  </si>
+  <si>
+    <t>https://www.3m.com/3M/en_US/drug-delivery-systems-us/</t>
+  </si>
+  <si>
+    <t>https://www.3m.com/3M/en_HK/food-safety-hk/</t>
+  </si>
+  <si>
+    <t>https://www.3m.com/3M/en_US/health-information-systems-us/</t>
+  </si>
+  <si>
+    <t>[URL.HCB_Medical_HK]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/dental-hk/</t>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/orthodontics-hk/</t>
+  </si>
+  <si>
+    <t>Avagard</t>
+  </si>
+  <si>
+    <t>Bair Hugger (English)</t>
+  </si>
+  <si>
+    <t>Cavilon</t>
+  </si>
+  <si>
+    <t>Filtek (English)</t>
+  </si>
+  <si>
+    <t>Impregum (English)</t>
+  </si>
+  <si>
+    <t>Incognito (English)</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Littmann</t>
+  </si>
+  <si>
+    <t>Petrifilm (English)</t>
+  </si>
+  <si>
+    <t>RelyX (English)</t>
+  </si>
+  <si>
+    <t>Tegaderm</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]?N=5002385+8711017+8711715&amp;rt=r3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/company-hk/all-3m-products/~/All-3M-Products/Bair-Hugger/?N=5002385+8711017+8711716+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]~/%25E690%25E6C9-3M-%25E74%25A2%25E531/Cavilon/?N=5002385+8711017+8711717+3293746351&amp;rt=r3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/company-hk/all-3m-products/~/All-3M-Products/Filtek/?N=5002385+8711017+8711722+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/company-hk/all-3m-products/~/All-3M-Products/Impregum/?N=5002385+8711017+8711745+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/company-hk/all-3m-products/~/All-3M-Products/Lava/?N=5002385+8711017+8711723+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/littmann-stethoscopes-hk/</t>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/company-hk/all-3m-products/~/All-3M-Products/Food-Safety-Microbiology/Quality-Indicator-Testing-3M-Petrifilm-Plates/?N=5002385+8711017+8711414+8716589+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>https://www.3m.com.hk/3M/en_HK/company-hk/all-3m-products/~/All-3M-Products/RelyX/?N=5002385+8711017+8711728+3293746353&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_HK_All3MProducts]?N=5002385+8707795+8707798+8711017+8711738&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>應用</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>產品</t>
+  </si>
+  <si>
+    <t>MCWM-2596_HealthCare_HK</t>
+  </si>
+  <si>
+    <t>https://fuzeauth.3m.com/wps/myportal/zh_HK/$project/MCWM-2596_HealthCare_HK/3M/healthcare-hk/</t>
+  </si>
+  <si>
+    <t>zh_HK</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,6 +1678,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="3M Circular TT Book"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="3"/>
@@ -1723,7 +1698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1768,6 +1743,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,12 +1903,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1936,7 +1918,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2016,50 +1997,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{BBCCF468-DA60-4AEE-ABF4-7C1488159903}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -2921,10 +2872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F150"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2943,69 +2897,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="A1" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="47"/>
-    </row>
-    <row r="3" spans="1:3" s="42" customFormat="1" ht="18.75">
-      <c r="A3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:3" s="42" customFormat="1" ht="18.75">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5" spans="1:3" s="42" customFormat="1" ht="18.75">
-      <c r="A5" s="10" t="s">
+      <c r="A2" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="46"/>
+    </row>
+    <row r="3" spans="1:3" s="41" customFormat="1" ht="18.75">
+      <c r="A3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="1:3" s="41" customFormat="1" ht="18.75">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="1:3" s="41" customFormat="1" ht="18.75">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="42"/>
+    </row>
+    <row r="6" spans="1:3" s="41" customFormat="1" ht="18.75">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6" spans="1:3" s="42" customFormat="1" ht="18.75">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="C6" s="43"/>
+      <c r="B6" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="42"/>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" s="47"/>
+      <c r="B8" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
-        <v>132</v>
+      <c r="A9" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3018,54 +2972,50 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="42" customFormat="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="42" customFormat="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>403</v>
-      </c>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="41" customFormat="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="45"/>
+    </row>
+    <row r="12" spans="1:3" s="41" customFormat="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>17</v>
+      <c r="C16" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3078,1091 +3028,831 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="47"/>
+      <c r="B24" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A25" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A26" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
-        <v>390</v>
+      <c r="A27" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>404</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>405</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>399</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A33" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="48" t="s">
-        <v>323</v>
+      <c r="A33" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="47" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A35" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="41" customFormat="1">
-      <c r="A37" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="40" customFormat="1">
+      <c r="A37" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D37" s="45"/>
+        <v>295</v>
+      </c>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>410</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>394</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>395</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
+      <c r="A43" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A44" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="41" customFormat="1">
-      <c r="A46" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>129</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="40" customFormat="1">
+      <c r="A46" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>421</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>423</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>425</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>427</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>430</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="41" customFormat="1">
-      <c r="A58" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="58" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A58" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="46"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>433</v>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>434</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>432</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>435</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>431</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-    </row>
-    <row r="68" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="66" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A66" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="46"/>
+    </row>
+    <row r="67" spans="1:3" ht="25.5">
+      <c r="A67" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" s="40" customFormat="1">
       <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="40" customFormat="1">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
+      <c r="B81" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="C81" s="49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="C82" s="49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C83" s="49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="C86" s="49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="C87" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C88" s="49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" s="4" customFormat="1" ht="18.75">
+      <c r="A102" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" s="41" customFormat="1">
-      <c r="A70" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="15" t="s">
+      <c r="B102" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="C103" s="49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="C104" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="C105" s="49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="15" t="s">
+      <c r="C106" s="49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="15" t="s">
+      <c r="C107" s="49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="15" t="s">
+      <c r="C108" s="49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="C109" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="C74" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="41" customFormat="1">
-      <c r="A82" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="15" t="s">
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-    </row>
-    <row r="93" spans="1:3" s="62" customFormat="1">
-      <c r="B93" s="63"/>
-      <c r="C93" s="63"/>
-    </row>
-    <row r="94" spans="1:3" ht="18.75">
-      <c r="A94" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="C94" s="54"/>
-    </row>
-    <row r="95" spans="1:3" s="41" customFormat="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="57"/>
-      <c r="C96" s="58"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" s="57"/>
-      <c r="C97" s="58"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" s="57"/>
-      <c r="C98" s="58"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101" s="59"/>
-      <c r="C101" s="60"/>
-    </row>
-    <row r="102" spans="1:3" ht="30">
-      <c r="A102" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B102" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" s="54"/>
-    </row>
-    <row r="103" spans="1:3" ht="25.5">
-      <c r="A103" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B103" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="56"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="C104" s="61"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="41" customFormat="1">
-      <c r="A107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B107" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="C108" s="46" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C112" s="15" t="s">
+      <c r="C110" s="49" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
+    <row r="111" spans="1:6">
+      <c r="A111" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+    </row>
+    <row r="113" spans="1:3" ht="18.75">
+      <c r="A113" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="46"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-    </row>
-    <row r="138" spans="1:6" s="4" customFormat="1" ht="18.75">
-      <c r="A138" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-    </row>
-    <row r="149" spans="1:3" ht="18.75">
-      <c r="A149" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="B149" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C149" s="47"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B150" s="7"/>
+      <c r="A114" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4170,9 +3860,9 @@
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A33:B33"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Footer Headings Are Unlinked" error="Footer section headings cannot be linked to anything in FUZE v2." sqref="C107" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Footer Headings Are Unlinked" error="Footer section headings cannot be linked to anything in FUZE v2." sqref="C71" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>BusinessGroups</formula1>
     </dataValidation>
@@ -4191,12 +3881,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C33" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B149" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B102" r:id="rId6" xr:uid="{A2FE31AB-5C93-407D-B914-12F072111CB6}"/>
-    <hyperlink ref="B94" r:id="rId7" xr:uid="{3ABBCB85-0645-4FA3-8735-FB11B0C43B31}"/>
+    <hyperlink ref="B66" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B58" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B113" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -4220,11 +3910,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4243,44 +3931,44 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>392</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -4292,8 +3980,8 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>132</v>
+      <c r="A8" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4306,66 +3994,66 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>17</v>
+      <c r="C15" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="7" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4374,914 +4062,817 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="17"/>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>57</v>
-      </c>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
+      <c r="A25" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="7"/>
+      <c r="A26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="7"/>
+      <c r="A27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>131</v>
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A31" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="18.75">
+      <c r="A33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="C34" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="18.75">
+      <c r="A42" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A45" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>22</v>
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="56" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="64" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="25.5">
+      <c r="A65" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="1:6" s="4" customFormat="1" ht="18.75">
+      <c r="A100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A54" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="B101" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-    </row>
-    <row r="68" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>106</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>119</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="76" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A76" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" ht="25.5">
-      <c r="A77" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="A108" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="1:6" s="4" customFormat="1" ht="18.75">
-      <c r="A112" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-    </row>
-    <row r="123" spans="1:6" ht="18.75">
-      <c r="A123" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>93</v>
+      <c r="A109" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="111" spans="1:6" ht="18.75">
+      <c r="A111" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>prodcuttypee</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Footer Headings Are Unlinked" error="Footer section headings cannot be linked to anything in FUZE v2." sqref="C81" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A31:B31"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Footer Headings Are Unlinked" error="Footer section headings cannot be linked to anything in FUZE v2." sqref="C69" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{14788C63-B207-43F4-AEDC-D0F34192C779}"/>
+    <hyperlink ref="C31" r:id="rId1" xr:uid="{F17F32B1-2D24-4C33-B970-5E35CB9E33CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5298,7 +4889,7 @@
           <x14:formula1>
             <xm:f>Dropdowns!$E$25:$E$27</xm:f>
           </x14:formula1>
-          <xm:sqref>C48:C52</xm:sqref>
+          <xm:sqref>C36:C40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5310,8 +4901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5335,848 +4926,848 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="18.75">
-      <c r="A2" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="L5" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="J6" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" s="34" t="s">
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="P2" s="25"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="H3" s="23" t="s">
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="23" t="s">
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" t="s">
         <v>279</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="C15" s="22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="C16" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="E27" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="22" t="s">
-        <v>344</v>
+      <c r="C28" s="21" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="22" t="s">
-        <v>345</v>
+      <c r="C29" s="21" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="22" t="s">
-        <v>346</v>
+      <c r="C30" s="21" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="22" t="s">
-        <v>347</v>
+      <c r="C31" s="21" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="22" t="s">
-        <v>348</v>
+      <c r="C32" s="21" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="C33" s="22" t="s">
-        <v>349</v>
+      <c r="C33" s="21" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="C34" s="22" t="s">
-        <v>350</v>
+      <c r="C34" s="21" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="C35" s="22" t="s">
-        <v>351</v>
+      <c r="C35" s="21" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="C36" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="C37" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="C38" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="C42" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="C43" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="C45" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="C46" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="C47" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="C48" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6202,128 +5793,128 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/ThemeConfigRequest_Template_en_AU_L3.xlsx
+++ b/config/ThemeConfigRequest_Template_en_AU_L3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a83h8zz\Programming2018\site-config-parser\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14990CC2-2333-4564-BA50-D7592B50264C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4147D33C-0D1E-4C71-847E-E5590BB15533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6960" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="themeConfig Request" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
   <definedNames>
     <definedName name="Automotive">Dropdowns!$D$3:$D$8</definedName>
     <definedName name="BusinessGroup">Dropdowns!$B$3:$B$8</definedName>
+    <definedName name="BusinessGroups">Dropdowns!$B$3:$B$9</definedName>
     <definedName name="ColumnNumber" localSheetId="1">Lists!#REF!</definedName>
     <definedName name="ColumnNumber">Lists!#REF!</definedName>
     <definedName name="Commercial_Solutions">Dropdowns!$E$3:$E$10</definedName>
@@ -31,7 +32,7 @@
     <definedName name="Consumer">Dropdowns!$G$3:$G$9</definedName>
     <definedName name="cssMedia" localSheetId="1">Lists!#REF!</definedName>
     <definedName name="cssMedia">Lists!#REF!</definedName>
-    <definedName name="DCSext.MktExpertise">'themeConfig Request'!$C$12</definedName>
+    <definedName name="DCSext.MktExpertise">'themeConfig Request'!$C$13</definedName>
     <definedName name="Design___Construction">Dropdowns!$H$3:$H$10</definedName>
     <definedName name="Divison">Dropdowns!$C$3:$C$35</definedName>
     <definedName name="dropdownType">Lists!$B:$B</definedName>
@@ -43,6 +44,7 @@
     <definedName name="prodcuttypee">[1]Lists!$A:$A</definedName>
     <definedName name="ProductType">Lists!$A:$A</definedName>
     <definedName name="Safety">Dropdowns!$N$3:$N$10</definedName>
+    <definedName name="SelectDivisions">Dropdowns!$C$3:$C$87</definedName>
     <definedName name="socialProperties">Lists!$C:$C</definedName>
     <definedName name="SubCat_Headers" localSheetId="1">SubCat_Table[#Headers]</definedName>
     <definedName name="SubCat_Headers">SubCat_Table[#Headers]</definedName>
@@ -53,12 +55,12 @@
     <definedName name="YesNo" localSheetId="1">Lists!#REF!</definedName>
     <definedName name="YesNo">Lists!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="421">
   <si>
     <t>Metrics Metadata</t>
   </si>
@@ -744,9 +746,6 @@
     <t>Select Business Group</t>
   </si>
   <si>
-    <t>3M Purification Inc</t>
-  </si>
-  <si>
     <t>Abrasive Systems Division</t>
   </si>
   <si>
@@ -771,9 +770,6 @@
     <t>Corporate Communications</t>
   </si>
   <si>
-    <t>Corporate New Ventures</t>
-  </si>
-  <si>
     <t>Corporate R &amp; D</t>
   </si>
   <si>
@@ -810,9 +806,6 @@
     <t>Industrial Mineral Products</t>
   </si>
   <si>
-    <t>Industrial Services &amp; Solutions Div</t>
-  </si>
-  <si>
     <t>Infection Prevention Division</t>
   </si>
   <si>
@@ -831,13 +824,7 @@
     <t>Personal Safety Division</t>
   </si>
   <si>
-    <t>Renewable Energy Division</t>
-  </si>
-  <si>
     <t>Stationery and Office Supplies Div</t>
-  </si>
-  <si>
-    <t>Traffic Safety and Security Divisio</t>
   </si>
   <si>
     <t>Select Division</t>
@@ -1144,59 +1131,377 @@
     <t>IBG_Auto_OEM-Tier</t>
   </si>
   <si>
-    <t>CORP_StateofScience_US</t>
-  </si>
-  <si>
-    <t>https://fuzeauth.3m.com/wps/myportal/en_US/$project/CORP_StateofScience_US/3M/state-of-science-index-survey/?uri=utb%3Aopen&amp;locale=en_US&amp;locale=en</t>
-  </si>
-  <si>
-    <t>Marketing - Sales</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>CORP_StateofScience_US_Understanding3MStateofScienceIndex</t>
-  </si>
-  <si>
-    <t>CORP_StateofScience_US_Insights_TheHumanFactor</t>
-  </si>
-  <si>
-    <t>The Human Factor</t>
-  </si>
-  <si>
-    <t>CORP_StateofScience_US_Insights_ScientistsAsStorytellers</t>
-  </si>
-  <si>
-    <t>Scientists as Storytellers</t>
-  </si>
-  <si>
-    <t>The Stem Generation</t>
-  </si>
-  <si>
-    <t>CORP_StateofScience_US_Insights_TheSTEMGeneration</t>
-  </si>
-  <si>
-    <t>SCIENCE CHAMPIONS PODCASTS</t>
-  </si>
-  <si>
-    <t>CORP_StateofScience_US_ScienceChampions</t>
-  </si>
-  <si>
-    <t>EXPLORE THE DATA</t>
-  </si>
-  <si>
-    <t>CORP_StateofScience_US_ExploreTheSurveyData</t>
-  </si>
-  <si>
-    <t>Survey Insights</t>
+    <t xml:space="preserve">Basics </t>
+  </si>
+  <si>
+    <t>Click Here for documentation for submitting site config requet</t>
+  </si>
+  <si>
+    <t>Click here for documenation for Contextual Footer</t>
+  </si>
+  <si>
+    <t>Click here for documenation of site metadata</t>
+  </si>
+  <si>
+    <t>Click here for documenation on Breadcrumb</t>
+  </si>
+  <si>
+    <t>Click here for documenation on Secondary Site Navigation</t>
+  </si>
+  <si>
+    <t>Click here for documentation on Support Bar</t>
+  </si>
+  <si>
+    <t>Click here for documentation on Disclaimer/Trademark</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secondary Site Navigation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Overview, Products, and Support are required SSN labels)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cells highlighted in this color are required fields</t>
+    </r>
+  </si>
+  <si>
+    <t>Overview cannot have a dropdown.</t>
+  </si>
+  <si>
+    <t>Imation</t>
+  </si>
+  <si>
+    <t>Separation and Purification Science</t>
+  </si>
+  <si>
+    <t>Automotive and Aerospace Solutions</t>
+  </si>
+  <si>
+    <t>Administrative Services</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Corp Quality Services</t>
+  </si>
+  <si>
+    <t>Austin Admin Services</t>
+  </si>
+  <si>
+    <t>Package Engineering</t>
+  </si>
+  <si>
+    <t>Sourcing Operations</t>
+  </si>
+  <si>
+    <t>Materials Resource Div</t>
+  </si>
+  <si>
+    <t>Consumer &amp; Office Business Spon</t>
+  </si>
+  <si>
+    <t>Safety &amp; Graphics Business Sponsor</t>
+  </si>
+  <si>
+    <t>Industrial Business Sponsor</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>EHS</t>
+  </si>
+  <si>
+    <t>Supply Chain Services</t>
+  </si>
+  <si>
+    <t>R &amp; D Archive</t>
+  </si>
+  <si>
+    <t>Supply Chain - Operations</t>
+  </si>
+  <si>
+    <t>Engineering Sys Tech Center</t>
+  </si>
+  <si>
+    <t>Plant Engineering</t>
+  </si>
+  <si>
+    <t>Corporate Security</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Business Services Organization</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>General Counsel</t>
+  </si>
+  <si>
+    <t>3M IPC</t>
+  </si>
+  <si>
+    <t>Transportation Safety Division</t>
+  </si>
+  <si>
+    <t>Electronics &amp; Energy Business Spons</t>
+  </si>
+  <si>
+    <t>Health Care Business Sponsor</t>
+  </si>
+  <si>
+    <t>Executive Departments</t>
+  </si>
+  <si>
+    <t>Lean Six Sigma</t>
+  </si>
+  <si>
+    <t>Film Mfg &amp; Supp Chain Opers</t>
+  </si>
+  <si>
+    <t>Admin Space Pools</t>
+  </si>
+  <si>
+    <t>IT Managed</t>
+  </si>
+  <si>
+    <t>Business Transformation</t>
+  </si>
+  <si>
+    <t>Life Cycle Management</t>
+  </si>
+  <si>
+    <t>Corporate Environmental Programs</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Imation Corp Misc</t>
+  </si>
+  <si>
+    <t>Corporate Funded</t>
+  </si>
+  <si>
+    <t>3M Ventures</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals Division</t>
+  </si>
+  <si>
+    <t>Imation Intl Offshore</t>
+  </si>
+  <si>
+    <t>Imation Intl Export</t>
+  </si>
+  <si>
+    <t>Imation Intl Staff Svcs</t>
+  </si>
+  <si>
+    <t>Imation Intl Contract</t>
+  </si>
+  <si>
+    <t>Imation Intl License Fee</t>
+  </si>
+  <si>
+    <t>Dyneon Intl Offshore</t>
+  </si>
+  <si>
+    <t>Dyneon Intl Export</t>
+  </si>
+  <si>
+    <t>Dyneon Intl Staff Svcs</t>
+  </si>
+  <si>
+    <t>Dyneon Intl Contract</t>
+  </si>
+  <si>
+    <t>Dyneon Intl License Fee</t>
+  </si>
+  <si>
+    <t>US Atlantic Pacific Branches</t>
+  </si>
+  <si>
+    <t>Global Channel Services</t>
+  </si>
+  <si>
+    <t>International Ous Staff Svcs</t>
+  </si>
+  <si>
+    <t>International Contract</t>
+  </si>
+  <si>
+    <t>International License Fee</t>
+  </si>
+  <si>
+    <t>International Global Trading</t>
+  </si>
+  <si>
+    <t>All sites with breadcrumb need to at least append the country name (without "3M" in text) and link to the locales CORP_FUZEExp home page.</t>
+  </si>
+  <si>
+    <t>Paper &amp; Print</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>United States &gt; Manufacturing &gt; Paper &amp; Print &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Site Homepage] &gt; [Current Child Page]</t>
+    </r>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>CONTACT US</t>
+  </si>
+  <si>
+    <t>Double-sided adhesive tapes</t>
+  </si>
+  <si>
+    <t>Parts cleaning</t>
+  </si>
+  <si>
+    <t>Structural adhesive technologies</t>
+  </si>
+  <si>
+    <t>NVH &amp; Thermal</t>
+  </si>
+  <si>
+    <t>Engineered films</t>
+  </si>
+  <si>
+    <t>Releasable attachments</t>
+  </si>
+  <si>
+    <t>Emission Solutions</t>
+  </si>
+  <si>
+    <t>Adhesive weights</t>
+  </si>
+  <si>
+    <t>en_LI</t>
+  </si>
+  <si>
+    <t>3M Europe, Middle East &amp; Africa</t>
+  </si>
+  <si>
+    <t>CORP_FUZEExp_EU</t>
+  </si>
+  <si>
+    <t>IBG_OEM_Tier_EU</t>
+  </si>
+  <si>
+    <t>View all</t>
+  </si>
+  <si>
+    <t>Tiger-1252_SSN_Changes</t>
+  </si>
+  <si>
+    <t>https://fuzeauth.3m.com/wps/myportal/en_LI/$project/Tiger-1252_SSN_Changes/3M/oem-tier-EU/</t>
+  </si>
+  <si>
+    <t>[URL.IBG_OEM_Tier_EU_Applications]</t>
+  </si>
+  <si>
+    <t>[URL.IBG_OEM_Tier_EU_Resources]</t>
+  </si>
+  <si>
+    <t>[URL.IBG_OEM_Tier_EU_Support]</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8711017+8716712+8719972&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8710927+8711017+8716712&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8710693+8711017+8716712&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8711017+8716712+8719976&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8711017+8716712+8753839&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8711017+8716712+8720075&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8711017+8716712+8719973&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_EU_All3MProducts]?N=5002385+8711017+8716712+8719959&amp;rt=r3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,12 +1597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1305,8 +1604,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1339,6 +1659,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,9 +1828,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1573,10 +1905,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2056,6 +2403,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDA4426"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2437,13 +2790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
@@ -2458,197 +2811,211 @@
     <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="46"/>
+    </row>
+    <row r="6" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="43"/>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="C11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="40"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B22" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="47"/>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -2657,612 +3024,802 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>182</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>390</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A45" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="46" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A54" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>76</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20.45" customHeight="1">
+        <v>79</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
     </row>
-    <row r="65" spans="1:3">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
     </row>
-    <row r="68" spans="1:3">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-    </row>
-    <row r="71" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-    </row>
-    <row r="73" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C71" s="47"/>
+    </row>
+    <row r="72" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-    </row>
-    <row r="74" spans="1:3" ht="23.25" customHeight="1">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="18.75">
-      <c r="A76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" ht="25.5">
-      <c r="A77" s="16" t="s">
+      <c r="B79" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="47"/>
+    </row>
+    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="6" t="s">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>102</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="15"/>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="46"/>
       <c r="C84" s="15"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="C92" s="15"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="15"/>
+        <v>101</v>
+      </c>
       <c r="C93" s="15"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" ht="18.75">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-    </row>
-    <row r="99" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
     </row>
-    <row r="106" spans="1:6" ht="18.75">
-      <c r="A106" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="6" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+    </row>
+    <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B126" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C126" s="47"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B107" s="7"/>
+      <c r="B127" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:C30" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>ProductType</formula1>
+  <mergeCells count="2">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A33:B33"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Footer Headings Are Unlinked" error="Footer section headings cannot be linked to anything in FUZE v2." sqref="C84" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Overview Dropdown" error="The &quot;Overview&quot; link is a static link that points to a site's homepage, and cannot be turned into a dropdown." sqref="C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Overview cannot have a dropdown."</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{8BEE09E3-391F-469E-A9C1-1CFF16183520}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B79" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B71" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B126" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3270,7 +3827,7 @@
           <x14:formula1>
             <xm:f>Dropdowns!$E$25:$E$27</xm:f>
           </x14:formula1>
-          <xm:sqref>C48:C52</xm:sqref>
+          <xm:sqref>C38:C42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3285,11 +3842,9 @@
   </sheetPr>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:C78"/>
-    </sheetView>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
@@ -3304,14 +3859,14 @@
     <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -3320,7 +3875,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3329,7 +3884,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3338,7 +3893,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3347,21 +3902,21 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="18.75">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -3369,10 +3924,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="7" t="s">
         <v>179</v>
@@ -3381,7 +3936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>180</v>
@@ -3390,7 +3945,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>65</v>
       </c>
@@ -3398,7 +3953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>66</v>
       </c>
@@ -3406,13 +3961,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -3423,19 +3978,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
@@ -3444,7 +3999,7 @@
       </c>
       <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3453,7 +4008,7 @@
       </c>
       <c r="C19" s="18"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3462,7 +4017,7 @@
       </c>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3471,14 +4026,14 @@
       </c>
       <c r="C21" s="18"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.75">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -3486,26 +4041,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
@@ -3516,7 +4071,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +4082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3536,7 +4091,7 @@
       </c>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -3547,14 +4102,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3565,33 +4120,33 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" ht="18.75">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="18.75">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
@@ -3602,7 +4157,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -3613,7 +4168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -3624,47 +4179,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>112</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
     </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" ht="18.75">
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="18.75">
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -3676,7 +4231,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -3684,11 +4239,11 @@
         <v>94</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -3696,23 +4251,23 @@
         <v>95</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>126</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -3722,7 +4277,7 @@
       </c>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -3732,21 +4287,21 @@
       </c>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.75">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>5</v>
@@ -3755,9 +4310,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>145</v>
@@ -3766,7 +4321,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -3777,7 +4332,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -3788,7 +4343,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -3799,7 +4354,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3810,7 +4365,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -3821,49 +4376,49 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>120</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>121</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>123</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
     </row>
-    <row r="68" spans="1:3" s="4" customFormat="1" ht="18.75">
+    <row r="68" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>5</v>
@@ -3872,7 +4427,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -3883,7 +4438,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -3894,7 +4449,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -3905,28 +4460,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>107</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>119</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="76" spans="1:3" s="4" customFormat="1" ht="18.75">
+    <row r="76" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" ht="25.5">
+    <row r="77" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>72</v>
       </c>
@@ -3935,7 +4490,7 @@
       </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>102</v>
       </c>
@@ -3944,7 +4499,7 @@
       </c>
       <c r="C78" s="6"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>69</v>
       </c>
@@ -3955,7 +4510,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>56</v>
       </c>
@@ -3966,7 +4521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>18</v>
       </c>
@@ -3977,7 +4532,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>23</v>
       </c>
@@ -3988,7 +4543,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>24</v>
       </c>
@@ -3999,7 +4554,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>25</v>
       </c>
@@ -4010,7 +4565,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>26</v>
       </c>
@@ -4021,7 +4576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>27</v>
       </c>
@@ -4032,49 +4587,49 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>70</v>
       </c>
@@ -4085,7 +4640,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>56</v>
       </c>
@@ -4096,7 +4651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>18</v>
       </c>
@@ -4107,7 +4662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>23</v>
       </c>
@@ -4118,7 +4673,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>24</v>
       </c>
@@ -4129,70 +4684,70 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>71</v>
       </c>
@@ -4203,7 +4758,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>56</v>
       </c>
@@ -4214,7 +4769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>18</v>
       </c>
@@ -4225,7 +4780,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>23</v>
       </c>
@@ -4239,7 +4794,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" s="4" customFormat="1" ht="18.75">
+    <row r="112" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>24</v>
       </c>
@@ -4250,7 +4805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>25</v>
       </c>
@@ -4261,7 +4816,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>26</v>
       </c>
@@ -4271,63 +4826,63 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
     </row>
-    <row r="123" spans="1:6" ht="18.75">
+    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>59</v>
       </c>
@@ -4367,13 +4922,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:P41"/>
+  <dimension ref="A2:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -4393,7 +4948,7 @@
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>192</v>
       </c>
@@ -4401,7 +4956,7 @@
         <v>200</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>82</v>
@@ -4441,7 +4996,7 @@
       </c>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>181</v>
       </c>
@@ -4452,44 +5007,44 @@
         <v>201</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>182</v>
       </c>
@@ -4497,47 +5052,47 @@
         <v>193</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P4" s="23"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>82</v>
       </c>
@@ -4545,45 +5100,45 @@
         <v>196</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>170</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>183</v>
       </c>
@@ -4591,45 +5146,45 @@
         <v>197</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>169</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P6" s="23"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>184</v>
       </c>
@@ -4637,43 +5192,43 @@
         <v>198</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>185</v>
       </c>
@@ -4681,118 +5236,121 @@
         <v>199</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>186</v>
       </c>
+      <c r="B9" s="29" t="s">
+        <v>330</v>
+      </c>
       <c r="C9" s="29" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P9" s="23"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>187</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
@@ -4803,21 +5361,21 @@
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M11" s="37"/>
       <c r="N11" s="38"/>
       <c r="O11" s="39" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -4826,148 +5384,163 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>191</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="22" t="s">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="E27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -4975,12 +5548,245 @@
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>311</v>
+        <v>306</v>
+      </c>
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5000,14 +5806,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5018,7 +5824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5029,102 +5835,102 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
